--- a/pred_ohlcv/54_21/2019-11-01 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 CTXC ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>137516.166</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>135804.517</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>54587.56879999997</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>386.5326999999706</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>386.5326999999706</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>386.5326999999706</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-50505.14750000003</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-50454.63930000003</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-41674.95920000003</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-21786.50360000003</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-21622.95180000003</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-23554.72680000003</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 CTXC ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>135804.517</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>170446.0527</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>161800.7408</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -756,7 +756,7 @@
         <v>54587.56879999997</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>386.5326999999706</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>386.5326999999706</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>386.5326999999706</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-50505.14750000003</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-50454.63930000003</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-21786.50360000003</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-21622.95180000003</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-23554.72680000003</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
